--- a/pre_workshop_survey/indicator_dataset_LAC/LAC.xlsx
+++ b/pre_workshop_survey/indicator_dataset_LAC/LAC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
   <si>
     <t>Full name</t>
   </si>
@@ -138,6 +138,54 @@
     <t>RS change detection</t>
   </si>
   <si>
+    <t>Dana Skelly</t>
+  </si>
+  <si>
+    <t>Michelle Coppoletta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest recovery - density of live and dead trees (TreeMap, lidar), rSDI (TreeMap, F3), </t>
+  </si>
+  <si>
+    <t>Forest recovery - density of live and dead trees</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>lidar</t>
+  </si>
+  <si>
+    <t>rSDI</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Frank Koch</t>
+  </si>
+  <si>
+    <t>Indicator 1: forest spectral response time series, Dataset 1: LandTrendr or other trajectory-generating algorithm applied to RS image stacks; Indicator 2: percent tree canopy cover trajectory through time, Dataset 2: USFS/NLCD tree canopy cover product; Indicator 3: forest compositional change through time, Dataset 3: FIA Nationwide Forest Inventory</t>
+  </si>
+  <si>
+    <t>forest spectral response time series</t>
+  </si>
+  <si>
+    <t>LandTrendr or other trajectory-generating algorithm applied to RS image stacks</t>
+  </si>
+  <si>
+    <t>percent tree canopy cover trajectory through time</t>
+  </si>
+  <si>
+    <t>USFS/NLCD tree canopy cover product</t>
+  </si>
+  <si>
+    <t>forest compositional change through time</t>
+  </si>
+  <si>
+    <t>FIA Nationwide Forest Inventory</t>
+  </si>
+  <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to droughts in your area(s)?
 </t>
   </si>
@@ -169,6 +217,9 @@
   </si>
   <si>
     <t>NAIP</t>
+  </si>
+  <si>
+    <t>Tree mortality (annual FPH survey data or TreeMap if it is updated frequently enough)</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to insect outbreaks in your area(s)?
@@ -282,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,6 +363,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,7 +453,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F999" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F1002" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to wildfires in your area(s)?_x000a_" id="2"/>
@@ -413,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A13" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A15" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -422,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F13" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F15" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to droughts in your area(s)?_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -435,7 +489,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A13" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A16" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -444,7 +498,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F13" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F16" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to insect outbreaks in your area(s)?_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -656,7 +710,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -953,7 +1010,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -961,60 +1020,140 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
@@ -8807,6 +8946,30 @@
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="9"/>
+      <c r="B1000" s="4"/>
+      <c r="C1000" s="4"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="9"/>
+      <c r="B1001" s="4"/>
+      <c r="C1001" s="4"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="9"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8822,7 +8985,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -8831,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -8871,14 +9037,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -8887,14 +9053,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -8933,7 +9099,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8945,7 +9111,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>28</v>
@@ -8965,19 +9131,19 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -8985,34 +9151,52 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
@@ -12949,7 +13133,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -12961,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -12991,19 +13178,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -13011,14 +13198,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -13057,14 +13244,14 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -13083,14 +13270,14 @@
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -13099,14 +13286,14 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -13115,14 +13302,14 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -13131,32 +13318,54 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>

--- a/pre_workshop_survey/indicator_dataset_LAC/LAC.xlsx
+++ b/pre_workshop_survey/indicator_dataset_LAC/LAC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>Full name</t>
   </si>
@@ -159,6 +159,9 @@
     <t>rSDI</t>
   </si>
   <si>
+    <t>rSDI (Stand density index)</t>
+  </si>
+  <si>
     <t>F3</t>
   </si>
   <si>
@@ -187,6 +190,20 @@
   </si>
   <si>
     <t>Meghan Woods</t>
+  </si>
+  <si>
+    <t>Jeffrey Moore</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>Upekala Wijayratne</t>
+  </si>
+  <si>
+    <t>Indicator 1: forest canopy cover, Dataset 1: GNN
+Indicator 1: forest canopy cover, Dataset 2: lidar
+Indicator 2: forest type, Dataset 1: GNN</t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to droughts in your area(s)?
@@ -231,6 +248,9 @@
     <t>annual FPH survey data</t>
   </si>
   <si>
+    <t>annual Forest Health Protection (FPH) survey data</t>
+  </si>
+  <si>
     <t xml:space="preserve"> USFS/NLCD tree canopy cover product</t>
   </si>
   <si>
@@ -247,7 +267,10 @@
     <t>Remnant live tree canopy</t>
   </si>
   <si>
-    <t>LANDSAT or Sentinel and Aerial Detection Surveys</t>
+    <t>LANDSAT or Sentinel</t>
+  </si>
+  <si>
+    <t>Aerial Detection Surveys</t>
   </si>
   <si>
     <t>Indicator 2: species diversity at stand and landscape levels</t>
@@ -353,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -388,6 +411,7 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -431,7 +455,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="5">
+  <tableStyles count="6">
     <tableStyle count="3" pivot="0" name="wildfires-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -444,6 +468,10 @@
     </tableStyle>
     <tableStyle count="3" pivot="0" name="droughts-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="droughts-style 3">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
@@ -488,7 +516,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A19" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A21" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -510,7 +538,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A20" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B20:B21" displayName="Table_4" name="Table_4" id="4">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="droughts-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A23" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -518,8 +555,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F20" displayName="Table_5" name="Table_5" id="5">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F22" displayName="Table_6" name="Table_6" id="6">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify the lack of adaptive capacity to insect outbreaks in your area(s)?_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -1093,8 +1130,8 @@
       <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
+      <c r="E21" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>43</v>
@@ -1111,76 +1148,76 @@
         <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1189,16 +1226,24 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="10"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="10"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -9025,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -9065,14 +9110,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9081,14 +9126,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -9127,7 +9172,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -9139,7 +9184,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>28</v>
@@ -9159,19 +9204,19 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -9179,17 +9224,17 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -9207,19 +9252,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -9227,10 +9272,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>43</v>
@@ -9242,77 +9287,83 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="10"/>
@@ -13224,9 +13275,10 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
+  <tableParts count="3">
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13245,6 +13297,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="198.13"/>
+    <col customWidth="1" min="6" max="6" width="91.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13252,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -13282,107 +13335,111 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11">
@@ -13390,14 +13447,14 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -13406,14 +13463,14 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -13422,145 +13479,167 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="10"/>
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24">
@@ -17446,6 +17525,10 @@
     <row r="994">
       <c r="A994" s="10"/>
       <c r="B994" s="10"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="10"/>
+      <c r="B995" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
